--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il7-Il7r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il7-Il7r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Il7r</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4454536666666666</v>
+        <v>0.8062</v>
       </c>
       <c r="H2">
-        <v>1.336361</v>
+        <v>2.4186</v>
       </c>
       <c r="I2">
-        <v>0.9325083979842047</v>
+        <v>0.581704519790725</v>
       </c>
       <c r="J2">
-        <v>0.9325083979842046</v>
+        <v>0.5817045197907249</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2749333333333333</v>
+        <v>0.07349133333333334</v>
       </c>
       <c r="N2">
-        <v>0.8248</v>
+        <v>0.220474</v>
       </c>
       <c r="O2">
-        <v>0.0112272324745358</v>
+        <v>0.00285456188830886</v>
       </c>
       <c r="P2">
-        <v>0.0112272324745358</v>
+        <v>0.00285456188830886</v>
       </c>
       <c r="Q2">
-        <v>0.1224700614222222</v>
+        <v>0.05924871293333334</v>
       </c>
       <c r="R2">
-        <v>1.1022305528</v>
+        <v>0.5332384164</v>
       </c>
       <c r="S2">
-        <v>0.01046948856862562</v>
+        <v>0.001660511552451611</v>
       </c>
       <c r="T2">
-        <v>0.01046948856862562</v>
+        <v>0.00166051155245161</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4454536666666666</v>
+        <v>0.8062</v>
       </c>
       <c r="H3">
-        <v>1.336361</v>
+        <v>2.4186</v>
       </c>
       <c r="I3">
-        <v>0.9325083979842047</v>
+        <v>0.581704519790725</v>
       </c>
       <c r="J3">
-        <v>0.9325083979842046</v>
+        <v>0.5817045197907249</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.534303</v>
       </c>
       <c r="O3">
-        <v>0.007272967983561958</v>
+        <v>0.006917826957414881</v>
       </c>
       <c r="P3">
-        <v>0.007272967983561959</v>
+        <v>0.006917826957414882</v>
       </c>
       <c r="Q3">
-        <v>0.07933574348699998</v>
+        <v>0.1435850262</v>
       </c>
       <c r="R3">
-        <v>0.7140216913829999</v>
+        <v>1.2922652358</v>
       </c>
       <c r="S3">
-        <v>0.006782103722941774</v>
+        <v>0.004024131208258356</v>
       </c>
       <c r="T3">
-        <v>0.006782103722941774</v>
+        <v>0.004024131208258355</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,75 +646,75 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4454536666666666</v>
+        <v>0.8062</v>
       </c>
       <c r="H4">
-        <v>1.336361</v>
+        <v>2.4186</v>
       </c>
       <c r="I4">
-        <v>0.9325083979842047</v>
+        <v>0.581704519790725</v>
       </c>
       <c r="J4">
-        <v>0.9325083979842046</v>
+        <v>0.5817045197907249</v>
       </c>
       <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.237772</v>
+        <v>25.493631</v>
       </c>
       <c r="N4">
-        <v>0.713316</v>
+        <v>76.48089300000001</v>
       </c>
       <c r="O4">
-        <v>0.009709704849425294</v>
+        <v>0.9902276111542762</v>
       </c>
       <c r="P4">
-        <v>0.009709704849425294</v>
+        <v>0.9902276111542762</v>
       </c>
       <c r="Q4">
-        <v>0.1059164092306667</v>
+        <v>20.5529653122</v>
       </c>
       <c r="R4">
-        <v>0.9532476830759998</v>
+        <v>184.9766878098</v>
       </c>
       <c r="S4">
-        <v>0.009054381314037045</v>
+        <v>0.576019877030015</v>
       </c>
       <c r="T4">
-        <v>0.009054381314037043</v>
+        <v>0.5760198770300149</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -723,46 +723,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.4454536666666666</v>
+        <v>0.4454536666666667</v>
       </c>
       <c r="H5">
         <v>1.336361</v>
       </c>
       <c r="I5">
-        <v>0.9325083979842047</v>
+        <v>0.3214120705251191</v>
       </c>
       <c r="J5">
-        <v>0.9325083979842046</v>
+        <v>0.3214120705251191</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>23.79727066666667</v>
+        <v>0.07349133333333334</v>
       </c>
       <c r="N5">
-        <v>71.391812</v>
+        <v>0.220474</v>
       </c>
       <c r="O5">
-        <v>0.9717900946924769</v>
+        <v>0.00285456188830886</v>
       </c>
       <c r="P5">
-        <v>0.971790094692477</v>
+        <v>0.00285456188830886</v>
       </c>
       <c r="Q5">
-        <v>10.60058147512578</v>
+        <v>0.03273698390155556</v>
       </c>
       <c r="R5">
-        <v>95.40523327613199</v>
+        <v>0.2946328551140001</v>
       </c>
       <c r="S5">
-        <v>0.9062024243786002</v>
+        <v>0.0009174906469634445</v>
       </c>
       <c r="T5">
-        <v>0.9062024243786002</v>
+        <v>0.0009174906469634445</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.03224033333333334</v>
+        <v>0.4454536666666667</v>
       </c>
       <c r="H6">
-        <v>0.096721</v>
+        <v>1.336361</v>
       </c>
       <c r="I6">
-        <v>0.06749160201579534</v>
+        <v>0.3214120705251191</v>
       </c>
       <c r="J6">
-        <v>0.06749160201579534</v>
+        <v>0.3214120705251191</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2749333333333333</v>
+        <v>0.178101</v>
       </c>
       <c r="N6">
-        <v>0.8248</v>
+        <v>0.534303</v>
       </c>
       <c r="O6">
-        <v>0.0112272324745358</v>
+        <v>0.006917826957414881</v>
       </c>
       <c r="P6">
-        <v>0.0112272324745358</v>
+        <v>0.006917826957414882</v>
       </c>
       <c r="Q6">
-        <v>0.00886394231111111</v>
+        <v>0.079335743487</v>
       </c>
       <c r="R6">
-        <v>0.07977548079999999</v>
+        <v>0.714021691383</v>
       </c>
       <c r="S6">
-        <v>0.0007577439059101834</v>
+        <v>0.002223473085917202</v>
       </c>
       <c r="T6">
-        <v>0.0007577439059101836</v>
+        <v>0.002223473085917202</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,93 +832,93 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.4454536666666667</v>
+      </c>
+      <c r="H7">
+        <v>1.336361</v>
+      </c>
+      <c r="I7">
+        <v>0.3214120705251191</v>
+      </c>
+      <c r="J7">
+        <v>0.3214120705251191</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.03224033333333334</v>
-      </c>
-      <c r="H7">
-        <v>0.096721</v>
-      </c>
-      <c r="I7">
-        <v>0.06749160201579534</v>
-      </c>
-      <c r="J7">
-        <v>0.06749160201579534</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M7">
-        <v>0.178101</v>
+        <v>25.493631</v>
       </c>
       <c r="N7">
-        <v>0.534303</v>
+        <v>76.48089300000001</v>
       </c>
       <c r="O7">
-        <v>0.007272967983561958</v>
+        <v>0.9902276111542762</v>
       </c>
       <c r="P7">
-        <v>0.007272967983561959</v>
+        <v>0.9902276111542762</v>
       </c>
       <c r="Q7">
-        <v>0.005742035607</v>
+        <v>11.356231405597</v>
       </c>
       <c r="R7">
-        <v>0.051678320463</v>
+        <v>102.206082650373</v>
       </c>
       <c r="S7">
-        <v>0.0004908642606201852</v>
+        <v>0.3182711067922384</v>
       </c>
       <c r="T7">
-        <v>0.0004908642606201853</v>
+        <v>0.3182711067922384</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.03224033333333334</v>
+        <v>0.1342733333333333</v>
       </c>
       <c r="H8">
-        <v>0.096721</v>
+        <v>0.40282</v>
       </c>
       <c r="I8">
-        <v>0.06749160201579534</v>
+        <v>0.09688340968415604</v>
       </c>
       <c r="J8">
-        <v>0.06749160201579534</v>
+        <v>0.09688340968415604</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,90 +927,152 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.237772</v>
+        <v>0.07349133333333334</v>
       </c>
       <c r="N8">
-        <v>0.713316</v>
+        <v>0.220474</v>
       </c>
       <c r="O8">
-        <v>0.009709704849425294</v>
+        <v>0.00285456188830886</v>
       </c>
       <c r="P8">
-        <v>0.009709704849425294</v>
+        <v>0.00285456188830886</v>
       </c>
       <c r="Q8">
-        <v>0.007665848537333333</v>
+        <v>0.009867926297777779</v>
       </c>
       <c r="R8">
-        <v>0.068992636836</v>
+        <v>0.08881133667999999</v>
       </c>
       <c r="S8">
-        <v>0.0006553235353882499</v>
+        <v>0.0002765596888938053</v>
       </c>
       <c r="T8">
-        <v>0.0006553235353882499</v>
+        <v>0.0002765596888938053</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.1342733333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.40282</v>
+      </c>
+      <c r="I9">
+        <v>0.09688340968415604</v>
+      </c>
+      <c r="J9">
+        <v>0.09688340968415604</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.178101</v>
+      </c>
+      <c r="N9">
+        <v>0.534303</v>
+      </c>
+      <c r="O9">
+        <v>0.006917826957414881</v>
+      </c>
+      <c r="P9">
+        <v>0.006917826957414882</v>
+      </c>
+      <c r="Q9">
+        <v>0.02391421494</v>
+      </c>
+      <c r="R9">
+        <v>0.21522793446</v>
+      </c>
+      <c r="S9">
+        <v>0.0006702226632393246</v>
+      </c>
+      <c r="T9">
+        <v>0.0006702226632393247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1342733333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.40282</v>
+      </c>
+      <c r="I10">
+        <v>0.09688340968415604</v>
+      </c>
+      <c r="J10">
+        <v>0.09688340968415604</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
         <v>1</v>
       </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.03224033333333334</v>
-      </c>
-      <c r="H9">
-        <v>0.096721</v>
-      </c>
-      <c r="I9">
-        <v>0.06749160201579534</v>
-      </c>
-      <c r="J9">
-        <v>0.06749160201579534</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>23.79727066666667</v>
-      </c>
-      <c r="N9">
-        <v>71.391812</v>
-      </c>
-      <c r="O9">
-        <v>0.9717900946924769</v>
-      </c>
-      <c r="P9">
-        <v>0.971790094692477</v>
-      </c>
-      <c r="Q9">
-        <v>0.7672319387168889</v>
-      </c>
-      <c r="R9">
-        <v>6.905087448452</v>
-      </c>
-      <c r="S9">
-        <v>0.06558767031387672</v>
-      </c>
-      <c r="T9">
-        <v>0.06558767031387672</v>
+      <c r="M10">
+        <v>25.493631</v>
+      </c>
+      <c r="N10">
+        <v>76.48089300000001</v>
+      </c>
+      <c r="O10">
+        <v>0.9902276111542762</v>
+      </c>
+      <c r="P10">
+        <v>0.9902276111542762</v>
+      </c>
+      <c r="Q10">
+        <v>3.42311481314</v>
+      </c>
+      <c r="R10">
+        <v>30.80803331826</v>
+      </c>
+      <c r="S10">
+        <v>0.09593662733202291</v>
+      </c>
+      <c r="T10">
+        <v>0.09593662733202291</v>
       </c>
     </row>
   </sheetData>
